--- a/testData/Hana_T1003.xlsx
+++ b/testData/Hana_T1003.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FCE9CA-57DE-448A-900E-B6AF9C41E3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C596A22F-A661-4AD6-ACBE-AD2F3EF6D933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,9 +152,6 @@
     <t>Harrison-Walker</t>
   </si>
   <si>
-    <t>1419 Highway AM, Villa Ridge, MO 63089</t>
-  </si>
-  <si>
     <t>1419 Hwy Am</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
     <t>Midwest Block &amp; Brick</t>
   </si>
   <si>
-    <t>2993 Highway 100, Villa Ridge, MO 63089</t>
-  </si>
-  <si>
     <t>2993 MO-100</t>
   </si>
   <si>
@@ -207,6 +201,12 @@
   </si>
   <si>
     <t>9675784520</t>
+  </si>
+  <si>
+    <t>2993 Highway 100, Villa Ridge, MO</t>
+  </si>
+  <si>
+    <t>1419 Highway Am, Villa Ridge, MO 63089</t>
   </si>
 </sst>
 </file>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -594,7 +594,7 @@
     <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.6328125" bestFit="1" customWidth="1"/>
@@ -664,31 +664,31 @@
         <v>17</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>18</v>
@@ -753,10 +753,10 @@
         <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>39</v>
@@ -771,16 +771,16 @@
         <v>6</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>39</v>
@@ -795,7 +795,7 @@
         <v>6</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>41</v>
@@ -804,13 +804,13 @@
         <v>42</v>
       </c>
       <c r="Y2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="AA2" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>0</v>
